--- a/data/pca/factorExposure/factorExposure_2010-06-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-06-30.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01628051004865745</v>
+        <v>-0.01638488692318604</v>
       </c>
       <c r="C2">
-        <v>-0.004722735650022824</v>
+        <v>0.0008122301693550627</v>
       </c>
       <c r="D2">
-        <v>0.01302981101291313</v>
+        <v>0.007676182023774802</v>
       </c>
       <c r="E2">
-        <v>-0.01130251217360871</v>
+        <v>0.001806964073741469</v>
       </c>
       <c r="F2">
-        <v>0.02698871904311233</v>
+        <v>-0.01262330377876312</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1199077561279208</v>
+        <v>-0.09498579480828122</v>
       </c>
       <c r="C4">
-        <v>-0.1014301469343476</v>
+        <v>0.01798895565372173</v>
       </c>
       <c r="D4">
-        <v>-0.004578149652221538</v>
+        <v>0.08007347810760372</v>
       </c>
       <c r="E4">
-        <v>0.1560100720917386</v>
+        <v>-0.02817008938836463</v>
       </c>
       <c r="F4">
-        <v>0.08502371634245161</v>
+        <v>0.0403781727312553</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1268451683620254</v>
+        <v>-0.1518769800936619</v>
       </c>
       <c r="C6">
-        <v>-0.06478105743726609</v>
+        <v>0.02431695222867279</v>
       </c>
       <c r="D6">
-        <v>-0.001175488313881334</v>
+        <v>-0.02261824844612374</v>
       </c>
       <c r="E6">
-        <v>0.0709399100636877</v>
+        <v>-0.01211157874591302</v>
       </c>
       <c r="F6">
-        <v>0.02104983603032756</v>
+        <v>0.03910513922083487</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07529139859136953</v>
+        <v>-0.0628357658035715</v>
       </c>
       <c r="C7">
-        <v>-0.07995989102821097</v>
+        <v>0.0003476998717249874</v>
       </c>
       <c r="D7">
-        <v>0.01045030786928232</v>
+        <v>0.05200083079192519</v>
       </c>
       <c r="E7">
-        <v>0.01204949159196578</v>
+        <v>-0.0128344309300234</v>
       </c>
       <c r="F7">
-        <v>-0.0030361835105023</v>
+        <v>0.05907925159919482</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.04361258049296417</v>
+        <v>-0.05979048167277905</v>
       </c>
       <c r="C8">
-        <v>-0.01793329009479889</v>
+        <v>-0.01284277892964588</v>
       </c>
       <c r="D8">
-        <v>0.00951424674365752</v>
+        <v>0.02862976440170319</v>
       </c>
       <c r="E8">
-        <v>0.08214199300024019</v>
+        <v>-0.01119441199903785</v>
       </c>
       <c r="F8">
-        <v>0.07438793474550023</v>
+        <v>-0.02151642851220842</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08887090841761697</v>
+        <v>-0.07247439693758202</v>
       </c>
       <c r="C9">
-        <v>-0.07365535334938095</v>
+        <v>0.01451081531771219</v>
       </c>
       <c r="D9">
-        <v>-0.02060702467414095</v>
+        <v>0.07795264295851659</v>
       </c>
       <c r="E9">
-        <v>0.1231922447351839</v>
+        <v>-0.02088395468168832</v>
       </c>
       <c r="F9">
-        <v>0.06445731480902334</v>
+        <v>0.0615762960368037</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1346232267155042</v>
+        <v>-0.0916343253879202</v>
       </c>
       <c r="C10">
-        <v>0.1816933635916856</v>
+        <v>0.01341623604940713</v>
       </c>
       <c r="D10">
-        <v>0.003395956442452825</v>
+        <v>-0.1733114582872032</v>
       </c>
       <c r="E10">
-        <v>-0.027594182929309</v>
+        <v>0.034359698868339</v>
       </c>
       <c r="F10">
-        <v>-0.03529654670294979</v>
+        <v>-0.04926663939497557</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.06946233090263269</v>
+        <v>-0.08867135809792728</v>
       </c>
       <c r="C11">
-        <v>-0.06122592748753444</v>
+        <v>0.01375333228261061</v>
       </c>
       <c r="D11">
-        <v>-0.0460584253512363</v>
+        <v>0.1099130143691238</v>
       </c>
       <c r="E11">
-        <v>0.08736119948856577</v>
+        <v>-0.04082400412523606</v>
       </c>
       <c r="F11">
-        <v>0.04543758324530693</v>
+        <v>0.02770745857480282</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07682587310045501</v>
+        <v>-0.09402389935582234</v>
       </c>
       <c r="C12">
-        <v>-0.0712498975835171</v>
+        <v>0.01138245200069701</v>
       </c>
       <c r="D12">
-        <v>-0.05475007728224494</v>
+        <v>0.1166392380445114</v>
       </c>
       <c r="E12">
-        <v>0.1142508868386894</v>
+        <v>-0.03950190869219273</v>
       </c>
       <c r="F12">
-        <v>0.01035557356169328</v>
+        <v>0.03032451608755923</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04356559273849558</v>
+        <v>-0.04466612786013717</v>
       </c>
       <c r="C13">
-        <v>-0.03899826170307335</v>
+        <v>0.004857175882561899</v>
       </c>
       <c r="D13">
-        <v>0.02570972991327249</v>
+        <v>0.04265155478610545</v>
       </c>
       <c r="E13">
-        <v>0.03953327051972327</v>
+        <v>0.01350796702480728</v>
       </c>
       <c r="F13">
-        <v>0.02703831498938999</v>
+        <v>0.02207383250452616</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.04177157737698841</v>
+        <v>-0.02235177289684361</v>
       </c>
       <c r="C14">
-        <v>-0.03706912745466066</v>
+        <v>0.0150867867098344</v>
       </c>
       <c r="D14">
-        <v>-0.009055898681590116</v>
+        <v>0.02981694662850101</v>
       </c>
       <c r="E14">
-        <v>0.05641014639700142</v>
+        <v>-0.01518162136932409</v>
       </c>
       <c r="F14">
-        <v>0.03594327295275424</v>
+        <v>0.02773371459629742</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.02564810378452096</v>
+        <v>-0.03261898155732151</v>
       </c>
       <c r="C15">
-        <v>-0.01769595771589249</v>
+        <v>0.006252590193346641</v>
       </c>
       <c r="D15">
-        <v>0.071177351539975</v>
+        <v>0.04063875453965133</v>
       </c>
       <c r="E15">
-        <v>0.010158771071736</v>
+        <v>-0.007385379443038279</v>
       </c>
       <c r="F15">
-        <v>0.03817167592047352</v>
+        <v>0.03502784282447591</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.08239927155491693</v>
+        <v>-0.07577593091961346</v>
       </c>
       <c r="C16">
-        <v>-0.07617317112507922</v>
+        <v>0.005312194401707704</v>
       </c>
       <c r="D16">
-        <v>-0.04094546973254468</v>
+        <v>0.1143877887150703</v>
       </c>
       <c r="E16">
-        <v>0.09493490659114323</v>
+        <v>-0.05676901293648338</v>
       </c>
       <c r="F16">
-        <v>0.01581201811814906</v>
+        <v>0.03611756259621293</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.0172101117351741</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003959146797983246</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.0225033716959308</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.01074502133524922</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.02747402167089729</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04642028005661979</v>
+        <v>-0.06123539415072066</v>
       </c>
       <c r="C20">
-        <v>-0.02315152024723028</v>
+        <v>0.002945773465903561</v>
       </c>
       <c r="D20">
-        <v>0.03192413905090233</v>
+        <v>0.06835932915301245</v>
       </c>
       <c r="E20">
-        <v>0.07972070910384849</v>
+        <v>-0.04962765595538036</v>
       </c>
       <c r="F20">
-        <v>0.01087932504507146</v>
+        <v>0.032468252096002</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03614558809297805</v>
+        <v>-0.03811945325308684</v>
       </c>
       <c r="C21">
-        <v>-0.02670379992910881</v>
+        <v>0.008210622748452672</v>
       </c>
       <c r="D21">
-        <v>-0.02546361216969641</v>
+        <v>0.03401637491101627</v>
       </c>
       <c r="E21">
-        <v>0.06483940347895874</v>
+        <v>0.01250497662568065</v>
       </c>
       <c r="F21">
-        <v>0.03370626168502661</v>
+        <v>-0.01761427628650026</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.05507255866691797</v>
+        <v>-0.04267819118500447</v>
       </c>
       <c r="C22">
-        <v>-0.0020385440130473</v>
+        <v>0.0009240676691596461</v>
       </c>
       <c r="D22">
-        <v>0.649431291177288</v>
+        <v>-0.001619960013635548</v>
       </c>
       <c r="E22">
-        <v>0.04098232607758084</v>
+        <v>-0.03387310166779003</v>
       </c>
       <c r="F22">
-        <v>-0.1109286961542583</v>
+        <v>-0.02360354166903552</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.05562974853128434</v>
+        <v>-0.04271562449189608</v>
       </c>
       <c r="C23">
-        <v>-0.003290773577109343</v>
+        <v>0.0009469709297657464</v>
       </c>
       <c r="D23">
-        <v>0.6514876881027971</v>
+        <v>-0.001446895537696986</v>
       </c>
       <c r="E23">
-        <v>0.04543837834508613</v>
+        <v>-0.03423731862363326</v>
       </c>
       <c r="F23">
-        <v>-0.1091877543658632</v>
+        <v>-0.02302839861846433</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07826057601243105</v>
+        <v>-0.08204500903326645</v>
       </c>
       <c r="C24">
-        <v>-0.07142198577739053</v>
+        <v>0.005432165259684845</v>
       </c>
       <c r="D24">
-        <v>-0.03446573459550635</v>
+        <v>0.1148686690964229</v>
       </c>
       <c r="E24">
-        <v>0.09313118687012822</v>
+        <v>-0.0447906815928377</v>
       </c>
       <c r="F24">
-        <v>0.02411211634068714</v>
+        <v>0.02888171761545676</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07788186524822889</v>
+        <v>-0.08633322757267142</v>
       </c>
       <c r="C25">
-        <v>-0.05644046962553484</v>
+        <v>0.007675543037562619</v>
       </c>
       <c r="D25">
-        <v>-0.05846719708510675</v>
+        <v>0.1003498598431814</v>
       </c>
       <c r="E25">
-        <v>0.101111000094979</v>
+        <v>-0.02625328053912432</v>
       </c>
       <c r="F25">
-        <v>0.02616774868650449</v>
+        <v>0.03731883034180745</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04308334445451497</v>
+        <v>-0.05671658506681079</v>
       </c>
       <c r="C26">
-        <v>-0.0156219955284831</v>
+        <v>0.01540276996317356</v>
       </c>
       <c r="D26">
-        <v>0.01372969051201769</v>
+        <v>0.03126991540604192</v>
       </c>
       <c r="E26">
-        <v>0.08742214083633346</v>
+        <v>-0.02402369936490825</v>
       </c>
       <c r="F26">
-        <v>-0.03293971501597908</v>
+        <v>0.001288594982305194</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1529201608927445</v>
+        <v>-0.1378651779115733</v>
       </c>
       <c r="C28">
-        <v>0.2735854822847794</v>
+        <v>0.01058614673095168</v>
       </c>
       <c r="D28">
-        <v>-0.01648961268076549</v>
+        <v>-0.273865017756723</v>
       </c>
       <c r="E28">
-        <v>0.02695254680502002</v>
+        <v>0.06573464973062004</v>
       </c>
       <c r="F28">
-        <v>0.008137267660299392</v>
+        <v>0.04489312713263774</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.03963595118278413</v>
+        <v>-0.0273202984504095</v>
       </c>
       <c r="C29">
-        <v>-0.03348525310701585</v>
+        <v>0.009237815969721952</v>
       </c>
       <c r="D29">
-        <v>-0.01469014559791994</v>
+        <v>0.02809981200145731</v>
       </c>
       <c r="E29">
-        <v>0.05977088545008166</v>
+        <v>-0.007960181389451879</v>
       </c>
       <c r="F29">
-        <v>0.0318510679248522</v>
+        <v>-0.005415501197421905</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.08144344261301813</v>
+        <v>-0.06481074934336968</v>
       </c>
       <c r="C30">
-        <v>-0.06577091798410539</v>
+        <v>0.007692613939769017</v>
       </c>
       <c r="D30">
-        <v>-0.01696415564588371</v>
+        <v>0.07547845576127135</v>
       </c>
       <c r="E30">
-        <v>0.2803720600207146</v>
+        <v>-0.02027843491455282</v>
       </c>
       <c r="F30">
-        <v>-0.05448612441161606</v>
+        <v>0.1233006669646291</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02993443190118225</v>
+        <v>-0.04846227624618613</v>
       </c>
       <c r="C31">
-        <v>-0.05809297081426874</v>
+        <v>0.01528169837821125</v>
       </c>
       <c r="D31">
-        <v>0.004255975099727223</v>
+        <v>0.02877829594707662</v>
       </c>
       <c r="E31">
-        <v>0.03591509166815551</v>
+        <v>-0.02632178036846443</v>
       </c>
       <c r="F31">
-        <v>0.02408824504441688</v>
+        <v>-0.002489498333748131</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04954383675366954</v>
+        <v>-0.04848940230609002</v>
       </c>
       <c r="C32">
-        <v>-0.01072431874989314</v>
+        <v>0.001163851040567004</v>
       </c>
       <c r="D32">
-        <v>-0.04606671481854551</v>
+        <v>0.02623541463376622</v>
       </c>
       <c r="E32">
-        <v>0.01207038036932952</v>
+        <v>-0.0243883821806078</v>
       </c>
       <c r="F32">
-        <v>0.1050529074172375</v>
+        <v>0.004740774035770819</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09665744953697342</v>
+        <v>-0.09169727062598641</v>
       </c>
       <c r="C33">
-        <v>-0.07283536676954032</v>
+        <v>0.01066127494959494</v>
       </c>
       <c r="D33">
-        <v>-0.02064415158823853</v>
+        <v>0.08984220531218085</v>
       </c>
       <c r="E33">
-        <v>0.06411011004327495</v>
+        <v>-0.04299959110053542</v>
       </c>
       <c r="F33">
-        <v>0.0009000333979415752</v>
+        <v>0.04260101419445759</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06848760955453995</v>
+        <v>-0.06905133982117399</v>
       </c>
       <c r="C34">
-        <v>-0.04877856745145323</v>
+        <v>0.0132863046134507</v>
       </c>
       <c r="D34">
-        <v>-0.04563615360279433</v>
+        <v>0.09384409465169714</v>
       </c>
       <c r="E34">
-        <v>0.07950957365092731</v>
+        <v>-0.02723214338239354</v>
       </c>
       <c r="F34">
-        <v>0.02713193178390095</v>
+        <v>0.05314816527147806</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.0179387968044495</v>
+        <v>-0.02431897891241401</v>
       </c>
       <c r="C35">
-        <v>-0.01721400918038978</v>
+        <v>0.002775196270845395</v>
       </c>
       <c r="D35">
-        <v>-0.0007335856743152351</v>
+        <v>0.01013401308852982</v>
       </c>
       <c r="E35">
-        <v>0.03271362371220118</v>
+        <v>-0.01178188460980214</v>
       </c>
       <c r="F35">
-        <v>0.01139495838765784</v>
+        <v>0.01286575289958487</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02862193191276609</v>
+        <v>-0.02627793274180906</v>
       </c>
       <c r="C36">
-        <v>-0.02100779468919438</v>
+        <v>0.00706924020102256</v>
       </c>
       <c r="D36">
-        <v>0.01600341381143847</v>
+        <v>0.0380623145891649</v>
       </c>
       <c r="E36">
-        <v>0.08873145723114823</v>
+        <v>-0.01609304669667328</v>
       </c>
       <c r="F36">
-        <v>0.01459247248306324</v>
+        <v>0.01409786269253051</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.02451955150987821</v>
+        <v>-0.003052537286125064</v>
       </c>
       <c r="C38">
-        <v>-0.05000987953593731</v>
+        <v>0.0005736204284045674</v>
       </c>
       <c r="D38">
-        <v>0.02885598011805258</v>
+        <v>0.00327454641767859</v>
       </c>
       <c r="E38">
-        <v>-0.08228670635423095</v>
+        <v>-0.004237182292047283</v>
       </c>
       <c r="F38">
-        <v>-0.09975238951060902</v>
+        <v>-0.00336738580701183</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1010084943908793</v>
+        <v>-0.1119818042721754</v>
       </c>
       <c r="C39">
-        <v>-0.08590307654989202</v>
+        <v>0.01954225997352235</v>
       </c>
       <c r="D39">
-        <v>-0.1297321018966639</v>
+        <v>0.1465459291231212</v>
       </c>
       <c r="E39">
-        <v>0.1640892247338645</v>
+        <v>-0.04924682742778025</v>
       </c>
       <c r="F39">
-        <v>-0.07538038495735862</v>
+        <v>0.04010720735267721</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.024382957111914</v>
+        <v>-0.03722988936199551</v>
       </c>
       <c r="C40">
-        <v>-0.06155698011486527</v>
+        <v>0.007750966256381334</v>
       </c>
       <c r="D40">
-        <v>0.02341829929446004</v>
+        <v>0.02753207093197869</v>
       </c>
       <c r="E40">
-        <v>0.04580544779515276</v>
+        <v>-0.002099287709418227</v>
       </c>
       <c r="F40">
-        <v>0.09454977871638524</v>
+        <v>-0.01629043223942005</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.03234822163243664</v>
+        <v>-0.02644099923072848</v>
       </c>
       <c r="C41">
-        <v>-0.02455104740534994</v>
+        <v>0.006752733970535722</v>
       </c>
       <c r="D41">
-        <v>-0.02051844574986848</v>
+        <v>0.01162338254889881</v>
       </c>
       <c r="E41">
-        <v>0.007317441744240919</v>
+        <v>-0.01086122130255478</v>
       </c>
       <c r="F41">
-        <v>-0.0211913816756431</v>
+        <v>-0.01206037534916772</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04853972527519813</v>
+        <v>-0.0432958799067624</v>
       </c>
       <c r="C43">
-        <v>-0.04999625760924076</v>
+        <v>0.007141355481176643</v>
       </c>
       <c r="D43">
-        <v>0.01126114909806781</v>
+        <v>0.02230667769049904</v>
       </c>
       <c r="E43">
-        <v>0.03217651953616361</v>
+        <v>-0.02592178826243766</v>
       </c>
       <c r="F43">
-        <v>-0.0467017402532433</v>
+        <v>-0.01106140833992187</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.0915309547931555</v>
+        <v>-0.07387129868227414</v>
       </c>
       <c r="C44">
-        <v>-0.08216864082829257</v>
+        <v>0.02392875555695952</v>
       </c>
       <c r="D44">
-        <v>0.06855035049150807</v>
+        <v>0.09887772451690194</v>
       </c>
       <c r="E44">
-        <v>0.08694034680024969</v>
+        <v>-0.06450784085455573</v>
       </c>
       <c r="F44">
-        <v>0.06817224448762933</v>
+        <v>0.1816903974237358</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.03952356236530077</v>
+        <v>-0.02398365444985125</v>
       </c>
       <c r="C46">
-        <v>-0.0385518969385194</v>
+        <v>0.004216049895203611</v>
       </c>
       <c r="D46">
-        <v>0.04408512657404425</v>
+        <v>0.01166351864025958</v>
       </c>
       <c r="E46">
-        <v>0.03132085142326347</v>
+        <v>-0.02251479080238103</v>
       </c>
       <c r="F46">
-        <v>0.04894582115394596</v>
+        <v>-0.001450772432092818</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05541453701411125</v>
+        <v>-0.05286690069821928</v>
       </c>
       <c r="C47">
-        <v>-0.04477273312511824</v>
+        <v>0.003373587491311274</v>
       </c>
       <c r="D47">
-        <v>0.0007598782435998469</v>
+        <v>0.01307067825162342</v>
       </c>
       <c r="E47">
-        <v>0.02624574095800546</v>
+        <v>-0.02253745065348094</v>
       </c>
       <c r="F47">
-        <v>-0.01290008023967722</v>
+        <v>-0.04758015548664184</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04676441044900401</v>
+        <v>-0.04824459380149176</v>
       </c>
       <c r="C48">
-        <v>-0.01857454035703465</v>
+        <v>0.003320231877201551</v>
       </c>
       <c r="D48">
-        <v>-0.01280073305001838</v>
+        <v>0.04422323667201169</v>
       </c>
       <c r="E48">
-        <v>0.0874669564143554</v>
+        <v>0.008834975549813209</v>
       </c>
       <c r="F48">
-        <v>0.06025235437265378</v>
+        <v>0.01937815103216281</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2367124160547585</v>
+        <v>-0.20685066956064</v>
       </c>
       <c r="C49">
-        <v>-0.04808930023716403</v>
+        <v>0.01684006737464091</v>
       </c>
       <c r="D49">
-        <v>-0.02439636226436258</v>
+        <v>-0.004715684505038027</v>
       </c>
       <c r="E49">
-        <v>-0.2878075328404384</v>
+        <v>-0.04146597581980545</v>
       </c>
       <c r="F49">
-        <v>-0.0866036054465681</v>
+        <v>0.03454564664226349</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03629975867684714</v>
+        <v>-0.0487615797168226</v>
       </c>
       <c r="C50">
-        <v>-0.05073851149833837</v>
+        <v>0.01146571957997169</v>
       </c>
       <c r="D50">
-        <v>-0.01069916660030051</v>
+        <v>0.02680579063295092</v>
       </c>
       <c r="E50">
-        <v>0.06879917467883953</v>
+        <v>-0.02839058832516119</v>
       </c>
       <c r="F50">
-        <v>-0.005124762846934302</v>
+        <v>0.006842153738301166</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.03013973821416388</v>
+        <v>-0.003516459535287507</v>
       </c>
       <c r="C51">
-        <v>-0.001838439291014577</v>
+        <v>0.000827471976057555</v>
       </c>
       <c r="D51">
-        <v>0.0001553512281679979</v>
+        <v>-0.001486557088763295</v>
       </c>
       <c r="E51">
-        <v>-0.05239441556822789</v>
+        <v>-0.001580127035297033</v>
       </c>
       <c r="F51">
-        <v>-0.004021146989970078</v>
+        <v>0.004424120380046481</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.02409291591854179</v>
+        <v>-0.1409994748276756</v>
       </c>
       <c r="C52">
-        <v>-0.01158442126089546</v>
+        <v>0.01254104542200375</v>
       </c>
       <c r="D52">
-        <v>-0.02486292790663469</v>
+        <v>0.04994188409686361</v>
       </c>
       <c r="E52">
-        <v>0.002100081753845017</v>
+        <v>-0.01505400222770764</v>
       </c>
       <c r="F52">
-        <v>-0.0189089270704176</v>
+        <v>0.02986986052681806</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1434964041992775</v>
+        <v>-0.172750281590356</v>
       </c>
       <c r="C53">
-        <v>-0.05448124925093741</v>
+        <v>0.01527295580347254</v>
       </c>
       <c r="D53">
-        <v>0.01902307217170479</v>
+        <v>0.01628697525130394</v>
       </c>
       <c r="E53">
-        <v>-0.06192861116207883</v>
+        <v>-0.03817459730385401</v>
       </c>
       <c r="F53">
-        <v>-0.09667266763318183</v>
+        <v>0.05797574271002839</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.0625636602138623</v>
+        <v>-0.02237750945630935</v>
       </c>
       <c r="C54">
-        <v>-0.04081239357693374</v>
+        <v>0.01317338126281309</v>
       </c>
       <c r="D54">
-        <v>0.002947979636488325</v>
+        <v>0.02838504160493787</v>
       </c>
       <c r="E54">
-        <v>0.1290642494185823</v>
+        <v>-0.01569739597650839</v>
       </c>
       <c r="F54">
-        <v>0.07957597965611557</v>
+        <v>0.001076354806967118</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08296393429241135</v>
+        <v>-0.1144486796882098</v>
       </c>
       <c r="C55">
-        <v>-0.05323690915707339</v>
+        <v>0.01434729044298132</v>
       </c>
       <c r="D55">
-        <v>-0.03135142121247259</v>
+        <v>0.01579945583056719</v>
       </c>
       <c r="E55">
-        <v>-0.0174934577599494</v>
+        <v>-0.02990740256909556</v>
       </c>
       <c r="F55">
-        <v>-0.02802143407297326</v>
+        <v>0.04622353289477608</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1389087657368737</v>
+        <v>-0.1774951845913165</v>
       </c>
       <c r="C56">
-        <v>-0.09183888525158991</v>
+        <v>0.01289720354069553</v>
       </c>
       <c r="D56">
-        <v>-0.01423845199706615</v>
+        <v>0.01286259727348613</v>
       </c>
       <c r="E56">
-        <v>-0.03265756897763427</v>
+        <v>-0.04216869344881906</v>
       </c>
       <c r="F56">
-        <v>-0.06559605923878431</v>
+        <v>0.02786720099902959</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.02857095587831803</v>
+        <v>-0.04712641685776345</v>
       </c>
       <c r="C58">
-        <v>-0.03549561249470549</v>
+        <v>0.003520798593086804</v>
       </c>
       <c r="D58">
-        <v>0.0311257576509598</v>
+        <v>0.06296514628780085</v>
       </c>
       <c r="E58">
-        <v>0.04559436801831698</v>
+        <v>-0.01432918659524058</v>
       </c>
       <c r="F58">
-        <v>-0.010458228686539</v>
+        <v>-0.04288450947358017</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.2079157342803015</v>
+        <v>-0.1699238786334082</v>
       </c>
       <c r="C59">
-        <v>0.2383887974789917</v>
+        <v>0.01238915001610824</v>
       </c>
       <c r="D59">
-        <v>-0.05907264396225545</v>
+        <v>-0.2314254293647738</v>
       </c>
       <c r="E59">
-        <v>-0.02680211003756663</v>
+        <v>0.04693125186943996</v>
       </c>
       <c r="F59">
-        <v>0.03938590524982648</v>
+        <v>-0.03022828584049284</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2377814221552199</v>
+        <v>-0.2398021201816772</v>
       </c>
       <c r="C60">
-        <v>-0.1379571998117782</v>
+        <v>-0.004422944763075736</v>
       </c>
       <c r="D60">
-        <v>-0.07050359067349361</v>
+        <v>0.05297053787146944</v>
       </c>
       <c r="E60">
-        <v>-0.1128481004867987</v>
+        <v>-0.01107620832531404</v>
       </c>
       <c r="F60">
-        <v>-0.01817849067878633</v>
+        <v>-0.04416410521244728</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.09526856841262199</v>
+        <v>-0.08571320835977191</v>
       </c>
       <c r="C61">
-        <v>-0.06755398135407341</v>
+        <v>0.01496914318711061</v>
       </c>
       <c r="D61">
-        <v>-0.07558302895698915</v>
+        <v>0.1066949786471016</v>
       </c>
       <c r="E61">
-        <v>0.1387827577708863</v>
+        <v>-0.03350924993603459</v>
       </c>
       <c r="F61">
-        <v>-0.008990998189659273</v>
+        <v>0.02624275860337056</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1269006889532249</v>
+        <v>-0.1686075955434758</v>
       </c>
       <c r="C62">
-        <v>-0.0694569840700332</v>
+        <v>0.01697513366554684</v>
       </c>
       <c r="D62">
-        <v>0.00438709934234338</v>
+        <v>0.01360398666065855</v>
       </c>
       <c r="E62">
-        <v>-0.05922177999449777</v>
+        <v>-0.03813560288640338</v>
       </c>
       <c r="F62">
-        <v>-0.06563767564589904</v>
+        <v>0.01028574428174685</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04696441181125997</v>
+        <v>-0.04264795949940348</v>
       </c>
       <c r="C63">
-        <v>-0.01801883323212824</v>
+        <v>0.00440711255685797</v>
       </c>
       <c r="D63">
-        <v>-0.01301857063924573</v>
+        <v>0.0460263278502825</v>
       </c>
       <c r="E63">
-        <v>0.07624446663441595</v>
+        <v>-0.01404985582860041</v>
       </c>
       <c r="F63">
-        <v>0.001497193175421633</v>
+        <v>0.01147169097666394</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09612875719017855</v>
+        <v>-0.1120998630680333</v>
       </c>
       <c r="C64">
-        <v>-0.06084181892663278</v>
+        <v>0.01202629156305853</v>
       </c>
       <c r="D64">
-        <v>-0.002968760513838351</v>
+        <v>0.03903343233904807</v>
       </c>
       <c r="E64">
-        <v>0.08003554616559014</v>
+        <v>-0.01893953248114786</v>
       </c>
       <c r="F64">
-        <v>-0.01049882759324462</v>
+        <v>0.01709773915352205</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1218571187455618</v>
+        <v>-0.1429148634408501</v>
       </c>
       <c r="C65">
-        <v>-0.04531151816546655</v>
+        <v>0.03071136087464089</v>
       </c>
       <c r="D65">
-        <v>-0.01535306812911772</v>
+        <v>-0.04727189217109092</v>
       </c>
       <c r="E65">
-        <v>0.09500554361286817</v>
+        <v>-0.003058425032144735</v>
       </c>
       <c r="F65">
-        <v>-0.01472602464281402</v>
+        <v>0.04126269339142935</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1098393554461463</v>
+        <v>-0.1339863975341706</v>
       </c>
       <c r="C66">
-        <v>-0.1206148855438943</v>
+        <v>0.01708564818999328</v>
       </c>
       <c r="D66">
-        <v>-0.1176863959004195</v>
+        <v>0.1335192240284913</v>
       </c>
       <c r="E66">
-        <v>0.1357095857418923</v>
+        <v>-0.05878120293154929</v>
       </c>
       <c r="F66">
-        <v>-0.08085802590818204</v>
+        <v>0.04478160679674938</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.0778777068409552</v>
+        <v>-0.06565499126618457</v>
       </c>
       <c r="C67">
-        <v>-0.06022348751737759</v>
+        <v>0.004490386551943211</v>
       </c>
       <c r="D67">
-        <v>0.0335562359467956</v>
+        <v>0.05523918789748675</v>
       </c>
       <c r="E67">
-        <v>-0.07119426491949141</v>
+        <v>-0.01933887691750413</v>
       </c>
       <c r="F67">
-        <v>-0.1265216100044068</v>
+        <v>-0.04340901214475247</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1280348817057144</v>
+        <v>-0.1109869776554757</v>
       </c>
       <c r="C68">
-        <v>0.2687167328809639</v>
+        <v>0.02141390175282103</v>
       </c>
       <c r="D68">
-        <v>-0.02572836013473553</v>
+        <v>-0.2718584341187306</v>
       </c>
       <c r="E68">
-        <v>0.05436453436677567</v>
+        <v>0.08481848442568242</v>
       </c>
       <c r="F68">
-        <v>-0.001078885526669508</v>
+        <v>0.04992648940992374</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04595069020314815</v>
+        <v>-0.04064649633618549</v>
       </c>
       <c r="C69">
-        <v>-0.01784000849472537</v>
+        <v>0.001189557750101465</v>
       </c>
       <c r="D69">
-        <v>0.005126852118482136</v>
+        <v>0.009144499499680258</v>
       </c>
       <c r="E69">
-        <v>0.01913113352884286</v>
+        <v>-0.02604918318367876</v>
       </c>
       <c r="F69">
-        <v>-0.0353179252485373</v>
+        <v>-0.01655203523603584</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.05113633107850739</v>
+        <v>-0.06442510272490184</v>
       </c>
       <c r="C70">
-        <v>-0.0598635212920931</v>
+        <v>-0.02705158340387775</v>
       </c>
       <c r="D70">
-        <v>-0.02686936000081985</v>
+        <v>0.01999688562235852</v>
       </c>
       <c r="E70">
-        <v>0.05901897755527744</v>
+        <v>0.04287928364453225</v>
       </c>
       <c r="F70">
-        <v>0.003547902080764191</v>
+        <v>-0.3387581117229151</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1457332975231437</v>
+        <v>-0.1304395633555818</v>
       </c>
       <c r="C71">
-        <v>0.2752586737136862</v>
+        <v>0.0254421379423811</v>
       </c>
       <c r="D71">
-        <v>-0.02197552625353488</v>
+        <v>-0.2879032888567651</v>
       </c>
       <c r="E71">
-        <v>0.06402213255509262</v>
+        <v>0.09238875819661024</v>
       </c>
       <c r="F71">
-        <v>-0.009864958694317711</v>
+        <v>0.05167926205715778</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.123002878673482</v>
+        <v>-0.1377773296724975</v>
       </c>
       <c r="C72">
-        <v>-0.01997277320183242</v>
+        <v>0.02364347790550876</v>
       </c>
       <c r="D72">
-        <v>-0.002321152802969094</v>
+        <v>0.006462811266256118</v>
       </c>
       <c r="E72">
-        <v>0.04237560185493089</v>
+        <v>-0.04153443947274189</v>
       </c>
       <c r="F72">
-        <v>-0.04560007766731987</v>
+        <v>0.02444735334646259</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2261241088380204</v>
+        <v>-0.2091691286026263</v>
       </c>
       <c r="C73">
-        <v>-0.1124679101452565</v>
+        <v>0.01142604912654907</v>
       </c>
       <c r="D73">
-        <v>-0.1247522529489373</v>
+        <v>0.02089498254615016</v>
       </c>
       <c r="E73">
-        <v>-0.4704305634160541</v>
+        <v>-0.06938628596215186</v>
       </c>
       <c r="F73">
-        <v>-0.2217094446684763</v>
+        <v>0.02367007747140996</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09027220539938029</v>
+        <v>-0.09385248731442754</v>
       </c>
       <c r="C74">
-        <v>-0.08567275861414492</v>
+        <v>0.01178270955874688</v>
       </c>
       <c r="D74">
-        <v>-0.00148468061851513</v>
+        <v>0.02620298414500232</v>
       </c>
       <c r="E74">
-        <v>-0.03005479278527247</v>
+        <v>-0.05108442502357856</v>
       </c>
       <c r="F74">
-        <v>-0.1041799422582717</v>
+        <v>0.0402635099265627</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.09326913815252601</v>
+        <v>-0.1301939164141073</v>
       </c>
       <c r="C75">
-        <v>-0.06176241680000152</v>
+        <v>0.0260079002760984</v>
       </c>
       <c r="D75">
-        <v>-0.0001242971879823577</v>
+        <v>0.03657664323331072</v>
       </c>
       <c r="E75">
-        <v>-0.006187375703951904</v>
+        <v>-0.05903999202512352</v>
       </c>
       <c r="F75">
-        <v>-0.01418157127439061</v>
+        <v>0.007090318811751931</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.0715441406108564</v>
+        <v>-0.00864858481691814</v>
       </c>
       <c r="C76">
-        <v>-0.07026987040717379</v>
+        <v>0.001911767260979866</v>
       </c>
       <c r="D76">
-        <v>0.01092910073135068</v>
+        <v>0.003541555147878889</v>
       </c>
       <c r="E76">
-        <v>-0.05275958533190744</v>
+        <v>-0.008850019657043202</v>
       </c>
       <c r="F76">
-        <v>-0.02484528999754821</v>
+        <v>0.002999738937246663</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.0676238480881676</v>
+        <v>-0.08079738116756112</v>
       </c>
       <c r="C77">
-        <v>-0.02726299465659059</v>
+        <v>0.01189289337856195</v>
       </c>
       <c r="D77">
-        <v>-0.03955427996846199</v>
+        <v>0.1025700064037936</v>
       </c>
       <c r="E77">
-        <v>0.1849603583700032</v>
+        <v>-0.03173331823082602</v>
       </c>
       <c r="F77">
-        <v>0.1011245392185753</v>
+        <v>0.03635095050998426</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1766322000965853</v>
+        <v>-0.1101139238244439</v>
       </c>
       <c r="C78">
-        <v>-0.1634870168589745</v>
+        <v>0.04431607217075585</v>
       </c>
       <c r="D78">
-        <v>0.1640646814903736</v>
+        <v>0.1190063493388643</v>
       </c>
       <c r="E78">
-        <v>-0.07639985878396456</v>
+        <v>-0.09098641522565834</v>
       </c>
       <c r="F78">
-        <v>0.6391546826053943</v>
+        <v>0.07544685951956456</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1290358099824263</v>
+        <v>-0.1625769782450121</v>
       </c>
       <c r="C79">
-        <v>-0.07549326821513559</v>
+        <v>0.02003974641807619</v>
       </c>
       <c r="D79">
-        <v>0.01309565710301131</v>
+        <v>0.02119376624845349</v>
       </c>
       <c r="E79">
-        <v>-0.01779091521479017</v>
+        <v>-0.04884437526578754</v>
       </c>
       <c r="F79">
-        <v>-0.0453307120819221</v>
+        <v>0.004141676925299451</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07050412128013775</v>
+        <v>-0.08036973330049674</v>
       </c>
       <c r="C80">
-        <v>-0.04746196068135985</v>
+        <v>-0.001089828880201312</v>
       </c>
       <c r="D80">
-        <v>-0.08304201444764067</v>
+        <v>0.05864673273808194</v>
       </c>
       <c r="E80">
-        <v>0.06125942255174372</v>
+        <v>-0.02831073239207317</v>
       </c>
       <c r="F80">
-        <v>-0.03952858151919456</v>
+        <v>-0.009809239273653373</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1268117675244418</v>
+        <v>-0.1223215529352587</v>
       </c>
       <c r="C81">
-        <v>-0.05230502876624078</v>
+        <v>0.02976138688775767</v>
       </c>
       <c r="D81">
-        <v>0.0101176994966289</v>
+        <v>0.02350087466268638</v>
       </c>
       <c r="E81">
-        <v>0.05841354423078058</v>
+        <v>-0.05824270357149031</v>
       </c>
       <c r="F81">
-        <v>-0.03299343708885246</v>
+        <v>-0.004651674737263663</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1207472532469964</v>
+        <v>-0.1620347439758471</v>
       </c>
       <c r="C82">
-        <v>-0.05687767226230615</v>
+        <v>0.02018583870784087</v>
       </c>
       <c r="D82">
-        <v>-0.003561027343929868</v>
+        <v>0.02052084803175512</v>
       </c>
       <c r="E82">
-        <v>-0.003341469196075387</v>
+        <v>-0.03464566548352188</v>
       </c>
       <c r="F82">
-        <v>-0.1047418574245321</v>
+        <v>0.05128502047886732</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08447768791263992</v>
+        <v>-0.06680516014458381</v>
       </c>
       <c r="C83">
-        <v>-0.08578056685191023</v>
+        <v>0.004239559657539841</v>
       </c>
       <c r="D83">
-        <v>-0.01678650037423311</v>
+        <v>0.04676078009882553</v>
       </c>
       <c r="E83">
-        <v>0.0489980046349807</v>
+        <v>-0.003881378424582455</v>
       </c>
       <c r="F83">
-        <v>-0.09271243239836448</v>
+        <v>-0.03070127355033076</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05104821930158664</v>
+        <v>-0.06097026204398188</v>
       </c>
       <c r="C84">
-        <v>0.06730774137654119</v>
+        <v>0.0119440894360203</v>
       </c>
       <c r="D84">
-        <v>-0.04117772023248246</v>
+        <v>0.05947359204422151</v>
       </c>
       <c r="E84">
-        <v>-0.01350435294761828</v>
+        <v>0.004327533052985645</v>
       </c>
       <c r="F84">
-        <v>0.2218072009170923</v>
+        <v>0.01639123311833365</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1177835927266915</v>
+        <v>-0.1377848266069202</v>
       </c>
       <c r="C85">
-        <v>-0.04757756667655406</v>
+        <v>0.02542174618213685</v>
       </c>
       <c r="D85">
-        <v>0.001166778858384068</v>
+        <v>0.01699422592955753</v>
       </c>
       <c r="E85">
-        <v>-0.02040750973673131</v>
+        <v>-0.040262010040835</v>
       </c>
       <c r="F85">
-        <v>-0.05730747023944731</v>
+        <v>0.03887045504829371</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.09147666116588925</v>
+        <v>-0.1002113612243747</v>
       </c>
       <c r="C86">
-        <v>-0.005600256969612808</v>
+        <v>-0.006934535219274553</v>
       </c>
       <c r="D86">
-        <v>0.03043876190483926</v>
+        <v>0.0141862889004458</v>
       </c>
       <c r="E86">
-        <v>-0.2750636362998206</v>
+        <v>-0.1330162560533101</v>
       </c>
       <c r="F86">
-        <v>0.4592616426065081</v>
+        <v>-0.8308777736000107</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1249643795738698</v>
+        <v>-0.1011969022790547</v>
       </c>
       <c r="C87">
-        <v>-0.0700279062573035</v>
+        <v>0.02621605358380011</v>
       </c>
       <c r="D87">
-        <v>0.01173950293604556</v>
+        <v>0.07167219426338671</v>
       </c>
       <c r="E87">
-        <v>0.07038732573384088</v>
+        <v>0.05384074092882096</v>
       </c>
       <c r="F87">
-        <v>0.02026620515913208</v>
+        <v>0.09347823402834529</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05971057416169243</v>
+        <v>-0.06189240612976734</v>
       </c>
       <c r="C88">
-        <v>-0.06312600822558599</v>
+        <v>0.003406435605218778</v>
       </c>
       <c r="D88">
-        <v>-0.03096159201443703</v>
+        <v>0.05577970779314551</v>
       </c>
       <c r="E88">
-        <v>0.01547406036467857</v>
+        <v>-0.02604072994681868</v>
       </c>
       <c r="F88">
-        <v>-0.02679197085145416</v>
+        <v>0.006232592058644283</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.2295362645828548</v>
+        <v>-0.1322290378572014</v>
       </c>
       <c r="C89">
-        <v>0.3732813744799882</v>
+        <v>0.004334803100034995</v>
       </c>
       <c r="D89">
-        <v>0.04054787103043145</v>
+        <v>-0.2717070613262717</v>
       </c>
       <c r="E89">
-        <v>-0.01556967646753635</v>
+        <v>0.0904827673892219</v>
       </c>
       <c r="F89">
-        <v>0.03075660335158442</v>
+        <v>0.03232440429353332</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1554423734878943</v>
+        <v>-0.142309607909153</v>
       </c>
       <c r="C90">
-        <v>0.2573857912955323</v>
+        <v>0.02083078330278087</v>
       </c>
       <c r="D90">
-        <v>-0.01871037876871153</v>
+        <v>-0.2730133036682526</v>
       </c>
       <c r="E90">
-        <v>0.01856475101621999</v>
+        <v>0.102932172272156</v>
       </c>
       <c r="F90">
-        <v>-0.01756137223246793</v>
+        <v>0.03761373040634385</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.07672119139017308</v>
+        <v>-0.1167705511089574</v>
       </c>
       <c r="C91">
-        <v>-0.06662724331564165</v>
+        <v>0.01598447313877744</v>
       </c>
       <c r="D91">
-        <v>0.003180441439795557</v>
+        <v>-0.001945783413448818</v>
       </c>
       <c r="E91">
-        <v>-0.01276604059367765</v>
+        <v>-0.05893158332415709</v>
       </c>
       <c r="F91">
-        <v>-0.002279969337913002</v>
+        <v>-0.03149423415754345</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1653638456505427</v>
+        <v>-0.1447091873639948</v>
       </c>
       <c r="C92">
-        <v>0.2959135298094785</v>
+        <v>0.01221015210137444</v>
       </c>
       <c r="D92">
-        <v>0.01986904466932945</v>
+        <v>-0.3062218113743871</v>
       </c>
       <c r="E92">
-        <v>0.05616260005907591</v>
+        <v>0.09906158714388792</v>
       </c>
       <c r="F92">
-        <v>0.03552396570677389</v>
+        <v>0.02902928895810511</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1691377058365615</v>
+        <v>-0.1462115949521869</v>
       </c>
       <c r="C93">
-        <v>0.3029476120052437</v>
+        <v>0.0174287153169662</v>
       </c>
       <c r="D93">
-        <v>-0.04841847368843455</v>
+        <v>-0.2789491587690729</v>
       </c>
       <c r="E93">
-        <v>0.02653012458329896</v>
+        <v>0.07017311179967804</v>
       </c>
       <c r="F93">
-        <v>0.009642246714005286</v>
+        <v>0.03048636200535294</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1190673376151154</v>
+        <v>-0.1336231937444286</v>
       </c>
       <c r="C94">
-        <v>-0.08011819641620581</v>
+        <v>0.02341253450330647</v>
       </c>
       <c r="D94">
-        <v>0.01670580008120635</v>
+        <v>0.04928772925355498</v>
       </c>
       <c r="E94">
-        <v>-0.03053306595399641</v>
+        <v>-0.06127184214018819</v>
       </c>
       <c r="F94">
-        <v>-0.04565942106514351</v>
+        <v>0.02546731460895573</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1435757004040737</v>
+        <v>-0.1275731907124255</v>
       </c>
       <c r="C95">
-        <v>-0.06275217850367998</v>
+        <v>0.006347125371834817</v>
       </c>
       <c r="D95">
-        <v>0.01572172125020398</v>
+        <v>0.08912637368413788</v>
       </c>
       <c r="E95">
-        <v>0.05095389660434806</v>
+        <v>-0.04051379381762625</v>
       </c>
       <c r="F95">
-        <v>0.1233784257746024</v>
+        <v>-0.01018522556815278</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.09448606724093837</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.989425069300226</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.01431612257398562</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.06035680512660963</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.05047440603377331</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1198215469192701</v>
+        <v>-0.1878350627038644</v>
       </c>
       <c r="C97">
-        <v>0.03026822077734865</v>
+        <v>-0.0125110291169795</v>
       </c>
       <c r="D97">
-        <v>0.02337499515722876</v>
+        <v>-0.01148761675747996</v>
       </c>
       <c r="E97">
-        <v>0.2825922159921014</v>
+        <v>-0.0131960808092124</v>
       </c>
       <c r="F97">
-        <v>-0.1870874324212181</v>
+        <v>-0.1712825287832672</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2568795583015644</v>
+        <v>-0.2070657724820214</v>
       </c>
       <c r="C98">
-        <v>-0.1027005198217009</v>
+        <v>0.006963139180916838</v>
       </c>
       <c r="D98">
-        <v>0.07637186600367876</v>
+        <v>0.01382120350902555</v>
       </c>
       <c r="E98">
-        <v>-0.240831332696383</v>
+        <v>0.08845082276548753</v>
       </c>
       <c r="F98">
-        <v>-0.0800175032034415</v>
+        <v>-0.1388889755185669</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.0718215093968626</v>
+        <v>-0.05790796620876599</v>
       </c>
       <c r="C99">
-        <v>-0.06054315096304045</v>
+        <v>-0.002938171846933909</v>
       </c>
       <c r="D99">
-        <v>0.01026387540506286</v>
+        <v>0.03348286517340096</v>
       </c>
       <c r="E99">
-        <v>-0.03507918760522849</v>
+        <v>-0.02664131614412587</v>
       </c>
       <c r="F99">
-        <v>-0.008733010826618761</v>
+        <v>0.004624893183781154</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.1222573208437008</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.04796524181729809</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.3215510420041146</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.9066162841453116</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.06060549311436533</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.04011690552632994</v>
+        <v>-0.02722329353014151</v>
       </c>
       <c r="C101">
-        <v>-0.03337515445607017</v>
+        <v>0.009158186380201893</v>
       </c>
       <c r="D101">
-        <v>-0.01487668217585934</v>
+        <v>0.02778660135125181</v>
       </c>
       <c r="E101">
-        <v>0.05692647973026042</v>
+        <v>-0.008162320897814426</v>
       </c>
       <c r="F101">
-        <v>0.0315491318172911</v>
+        <v>-0.007490018130823392</v>
       </c>
     </row>
     <row r="102" spans="1:6">
